--- a/po_analysis_by_asin/B0DJP9LCYC_po_data.xlsx
+++ b/po_analysis_by_asin/B0DJP9LCYC_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>30</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>80</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>10</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>20</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>310</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>10</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>30</v>

--- a/po_analysis_by_asin/B0DJP9LCYC_po_data.xlsx
+++ b/po_analysis_by_asin/B0DJP9LCYC_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -551,6 +552,243 @@
       </c>
       <c r="B4" t="n">
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>135</v>
+      </c>
+      <c r="C2" t="n">
+        <v>82.23705233118807</v>
+      </c>
+      <c r="D2" t="n">
+        <v>187.2224729127483</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.16767486587456</v>
+      </c>
+      <c r="D3" t="n">
+        <v>157.5479577664922</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>87</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32.17831772994309</v>
+      </c>
+      <c r="D4" t="n">
+        <v>139.7501951847236</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-25.64572799333572</v>
+      </c>
+      <c r="D5" t="n">
+        <v>76.09272721083546</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-48.65857827664961</v>
+      </c>
+      <c r="D6" t="n">
+        <v>62.45480311571779</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-58.01998834484235</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.7038919553519</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-75.16623944248165</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.50313945068778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-90.84596784936478</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.54635718650271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-108.7269923118385</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.914874817003452</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-122.113965080843</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-20.28838944125903</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-141.5565706319944</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-33.58092983911602</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-155.9273889930916</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-52.45951327796431</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-170.7885370673725</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-61.03829542463191</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-190.0142499420925</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-80.48792307550177</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0DJP9LCYC_po_data.xlsx
+++ b/po_analysis_by_asin/B0DJP9LCYC_po_data.xlsx
@@ -565,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,16 +584,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -602,12 +592,6 @@
       <c r="B2" t="n">
         <v>135</v>
       </c>
-      <c r="C2" t="n">
-        <v>82.23705233118807</v>
-      </c>
-      <c r="D2" t="n">
-        <v>187.2224729127483</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -616,12 +600,6 @@
       <c r="B3" t="n">
         <v>103</v>
       </c>
-      <c r="C3" t="n">
-        <v>52.16767486587456</v>
-      </c>
-      <c r="D3" t="n">
-        <v>157.5479577664922</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -630,12 +608,6 @@
       <c r="B4" t="n">
         <v>87</v>
       </c>
-      <c r="C4" t="n">
-        <v>32.17831772994309</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139.7501951847236</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -644,12 +616,6 @@
       <c r="B5" t="n">
         <v>24</v>
       </c>
-      <c r="C5" t="n">
-        <v>-25.64572799333572</v>
-      </c>
-      <c r="D5" t="n">
-        <v>76.09272721083546</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -658,12 +624,6 @@
       <c r="B6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>-48.65857827664961</v>
-      </c>
-      <c r="D6" t="n">
-        <v>62.45480311571779</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -672,12 +632,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>-58.01998834484235</v>
-      </c>
-      <c r="D7" t="n">
-        <v>48.7038919553519</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -686,12 +640,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>-75.16623944248165</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.50313945068778</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -700,12 +648,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-90.84596784936478</v>
-      </c>
-      <c r="D9" t="n">
-        <v>13.54635718650271</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -714,12 +656,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-108.7269923118385</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-4.914874817003452</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -728,12 +664,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-122.113965080843</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-20.28838944125903</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -742,12 +672,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-141.5565706319944</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-33.58092983911602</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -756,12 +680,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>-155.9273889930916</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-52.45951327796431</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -770,12 +688,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-170.7885370673725</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-61.03829542463191</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -783,12 +695,6 @@
       </c>
       <c r="B15" t="n">
         <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-190.0142499420925</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-80.48792307550177</v>
       </c>
     </row>
   </sheetData>
